--- a/medicine/Sexualité et sexologie/Paxamos/Paxamos.xlsx
+++ b/medicine/Sexualité et sexologie/Paxamos/Paxamos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paxamos (en alphabet grec Πάξαμος) est un  polygraphe et historien grec de Naucratis
 </t>
@@ -511,10 +523,12 @@
           <t>Notie historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Columelle cite Paxamos[1] dans un passage consacré à la préparation des provisions et des conserves, qui explique que les auteurs romains, carthaginois, comme Magon[2] et grecs tels que Mnaséas[3] et Paxamos, qu'il dit être des « écrivains grecs non sans réputation ». Ils paraissent avoir suivi les précautions, ne dédaignant pas d'apporter une contribution à la nourriture des hommes : « ils ont eu soin de former par leurs préceptes d'habiles boulangers, des cuisiniers, et même des économes ». Athénée[4] relève que Paxamos parle des « ἰσίκια », qui sont des sortes de viandes hachées au nom d'origine latine (isicium ou insicium).
-Son traité sur la cuisine paraît avoir été très connu dans l'Antiquité : Julius Pollux, Grec d'Égypte comme Athénée, le mentionne [5] ; saint Jérôme, dans le Contre Jovinienm[6] accuse le moine Jovinien de se consacrer « aux sauces d'Apicius et de Paxamos », et il associe également ces deux noms dans une de ses lettres. Vingt-trois citations de son traité sur l'agriculture sont conservées dans les Geoponica. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Columelle cite Paxamos dans un passage consacré à la préparation des provisions et des conserves, qui explique que les auteurs romains, carthaginois, comme Magon et grecs tels que Mnaséas et Paxamos, qu'il dit être des « écrivains grecs non sans réputation ». Ils paraissent avoir suivi les précautions, ne dédaignant pas d'apporter une contribution à la nourriture des hommes : « ils ont eu soin de former par leurs préceptes d'habiles boulangers, des cuisiniers, et même des économes ». Athénée relève que Paxamos parle des « ἰσίκια », qui sont des sortes de viandes hachées au nom d'origine latine (isicium ou insicium).
+Son traité sur la cuisine paraît avoir été très connu dans l'Antiquité : Julius Pollux, Grec d'Égypte comme Athénée, le mentionne  ; saint Jérôme, dans le Contre Jovinienm accuse le moine Jovinien de se consacrer « aux sauces d'Apicius et de Paxamos », et il associe également ces deux noms dans une de ses lettres. Vingt-trois citations de son traité sur l'agriculture sont conservées dans les Geoponica. 
 Il fait l'objet d'un article de la Souda, qui donne simplement une liste de titres :
 Ὀψαρτυτικὰ κατὰ στοιχεῖον, c'est-à-dire L'art de la cuisine par ordre alphabétique ;
 Βοιωτικὰ ἐν βιβλίοις β', c'est-à-dire Sur la Béotie, en deux livres ;
